--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormF3.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormF3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RAMMS\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1094,9 +1094,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1106,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,13 +1209,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,8 +1301,8 @@
     <xf numFmtId="164" fontId="13" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1887,7 +1887,7 @@
   <dimension ref="B1:DU59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:L5"/>
+      <selection activeCell="AU5" sqref="AU5:BO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -2423,12 +2423,12 @@
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="14"/>
       <c r="N5" s="74" t="s">
         <v>10</v>
@@ -2467,45 +2467,45 @@
       <c r="AR5" s="75"/>
       <c r="AS5" s="75"/>
       <c r="AT5" s="75"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="77"/>
-      <c r="BH5" s="77"/>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="77"/>
-      <c r="BO5" s="77"/>
-      <c r="BP5" s="78" t="s">
+      <c r="AU5" s="146"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="146"/>
+      <c r="AY5" s="146"/>
+      <c r="AZ5" s="146"/>
+      <c r="BA5" s="146"/>
+      <c r="BB5" s="146"/>
+      <c r="BC5" s="146"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="146"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="146"/>
+      <c r="BK5" s="146"/>
+      <c r="BL5" s="146"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="146"/>
+      <c r="BO5" s="146"/>
+      <c r="BP5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BQ5" s="79"/>
-      <c r="BR5" s="79"/>
-      <c r="BS5" s="79"/>
-      <c r="BT5" s="80"/>
-      <c r="BU5" s="80"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="80"/>
-      <c r="CB5" s="80"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="81"/>
+      <c r="BQ5" s="78"/>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="79"/>
+      <c r="CD5" s="79"/>
+      <c r="CE5" s="80"/>
     </row>
     <row r="6" spans="2:93" ht="18" customHeight="1">
       <c r="B6" s="72" t="s">
@@ -6700,6 +6700,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -6896,22 +6911,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12F65BC-A18D-4574-83DA-6AE092DB43C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13F3D0F-B9A2-4C7B-8A21-2E04B543F8EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B915BAFD-D884-4CCD-A2A2-94BA3CACF49C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6928,29 +6953,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12F65BC-A18D-4574-83DA-6AE092DB43C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13F3D0F-B9A2-4C7B-8A21-2E04B543F8EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>